--- a/2019-03-06/web_tables/mae_gdp_wide.xlsx
+++ b/2019-03-06/web_tables/mae_gdp_wide.xlsx
@@ -429,7 +429,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.008399999999999999</v>
+        <v>0.0084</v>
       </c>
       <c r="C4">
         <v>0.0106</v>
